--- a/Invoice.xlsx
+++ b/Invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahbless/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{31B84807-BBF9-904F-8316-DD109E22467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F230D69-DCC0-AD4D-BE0E-B89CE5D46466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20940" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Company_Name">Invoice!$B$2</definedName>
+    <definedName name="Company_Name">Invoice!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Invoice!$10:$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,16 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>INVOICE #100</t>
-  </si>
-  <si>
-    <t>BILL TO</t>
-  </si>
-  <si>
-    <t>FOR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>AMOUNT</t>
   </si>
@@ -69,18 +60,6 @@
     <t>THANK YOU FOR YOUR BUSINESS!</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>NAME | COMPANY</t>
-  </si>
-  <si>
-    <t>PRODUCT DESCRIPTION</t>
-  </si>
-  <si>
-    <t>PHONE</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -88,16 +67,6 @@
   </si>
   <si>
     <t>Details</t>
-  </si>
-  <si>
-    <t>COMPANY NAME</t>
-  </si>
-  <si>
-    <t>ADDRESS
-CITY, ST ZIP CODE</t>
-  </si>
-  <si>
-    <t>PHONE | FAX</t>
   </si>
   <si>
     <t>To view all overdue invoice visit  lazydaysfood.com/?mybills</t>
@@ -204,38 +173,24 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="7">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="8" applyFont="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -348,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InvoiceDetails" displayName="InvoiceDetails" ref="B10:C11" headerRowCellStyle="Heading 4">
-  <autoFilter ref="B10:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InvoiceDetails" displayName="InvoiceDetails" ref="B1:C2" headerRowCellStyle="Heading 4">
+  <autoFilter ref="B1:C2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Details" totalsRowLabel="Total" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AMOUNT" totalsRowFunction="sum" dataCellStyle="Currency"/>
@@ -570,10 +525,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C19"/>
+  <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -586,132 +541,78 @@
   <sheetData>
     <row r="1" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
-        <v>16</v>
+    <row r="2" spans="2:3" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="C3" s="3">
         <f>IFERROR(SUM(InvoiceDetails[AMOUNT]), "")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7">
+    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="4" t="s">
+    <row r="5" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C6" s="3">
+        <f>IFERROR(C3*(1+C4)+C5, "")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6">
-        <f>IFERROR(C12*(1+C13)+C14, "")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>8</v>
+    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="3">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
